--- a/Data_preparation/datasets/final_data/WERIDE_INC_ADR.xlsx
+++ b/Data_preparation/datasets/final_data/WERIDE_INC_ADR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,33 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -679,22 +652,22 @@
         <v>44926</v>
       </c>
       <c r="D2">
-        <v>26.71999931335449</v>
+        <v>15.5</v>
       </c>
       <c r="E2">
-        <v>28.72999954223633</v>
+        <v>14.77000045776367</v>
       </c>
       <c r="F2">
-        <v>29.72999954223633</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="G2">
-        <v>26.64999961853028</v>
+        <v>14.51299953460693</v>
       </c>
       <c r="H2">
-        <v>178998669</v>
+        <v>294517302</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-627104017.2166427</v>
@@ -723,22 +696,22 @@
         <v>45199</v>
       </c>
       <c r="D3">
-        <v>62.6169871617784</v>
+        <v>15.5</v>
       </c>
       <c r="E3">
-        <v>64.67326354980469</v>
+        <v>14.77000045776367</v>
       </c>
       <c r="F3">
-        <v>66.63478202323152</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="G3">
-        <v>60.75970456328059</v>
+        <v>14.51299953460693</v>
       </c>
       <c r="H3">
-        <v>212968277</v>
+        <v>294517302</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>74207000</v>
@@ -782,22 +755,22 @@
         <v>45291</v>
       </c>
       <c r="D4">
-        <v>1152.400024414062</v>
+        <v>15.5</v>
       </c>
       <c r="E4">
-        <v>1198.829956054688</v>
+        <v>14.77000045776367</v>
       </c>
       <c r="F4">
-        <v>1307.140014648438</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="G4">
-        <v>1113.18994140625</v>
+        <v>14.51299953460693</v>
       </c>
       <c r="H4">
-        <v>24003656</v>
+        <v>294517302</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>-632617771.5091679</v>
@@ -853,22 +826,22 @@
         <v>45382</v>
       </c>
       <c r="D5">
-        <v>104.6600036621094</v>
+        <v>15.5</v>
       </c>
       <c r="E5">
-        <v>92.98000335693359</v>
+        <v>14.77000045776367</v>
       </c>
       <c r="F5">
-        <v>105.0100021362305</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="G5">
-        <v>90.66999816894533</v>
+        <v>14.51299953460693</v>
       </c>
       <c r="H5">
-        <v>168459019</v>
+        <v>294517302</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P5">
         <v>71175000</v>
@@ -912,22 +885,22 @@
         <v>45473</v>
       </c>
       <c r="D6">
-        <v>53.97000122070312</v>
+        <v>15.5</v>
       </c>
       <c r="E6">
-        <v>52.63999938964844</v>
+        <v>14.77000045776367</v>
       </c>
       <c r="F6">
-        <v>65.87999725341797</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="G6">
-        <v>50.29000091552734</v>
+        <v>14.51299953460693</v>
       </c>
       <c r="H6">
-        <v>42689006</v>
+        <v>294517302</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>-571087327.8236915</v>
@@ -983,22 +956,22 @@
         <v>45565</v>
       </c>
       <c r="D7">
-        <v>36.50313191135645</v>
+        <v>15.5</v>
       </c>
       <c r="E7">
-        <v>39.63111877441406</v>
+        <v>14.77000045776367</v>
       </c>
       <c r="F7">
-        <v>41.15769383693995</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="G7">
-        <v>34.26814654717644</v>
+        <v>14.51299953460693</v>
       </c>
       <c r="H7">
-        <v>171080665</v>
+        <v>294517302</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>-470780196.6292135</v>
@@ -1057,22 +1030,22 @@
         <v>45657</v>
       </c>
       <c r="D8">
-        <v>12.96000003814697</v>
+        <v>14.18000030517578</v>
       </c>
       <c r="E8">
-        <v>14.22000026702881</v>
+        <v>14.6899995803833</v>
       </c>
       <c r="F8">
-        <v>15.34500026702881</v>
+        <v>16.28000068664551</v>
       </c>
       <c r="G8">
-        <v>12.61999988555908</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="H8">
-        <v>453568899</v>
+        <v>294517302</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>3848094615</v>
@@ -1152,22 +1125,22 @@
         <v>45747</v>
       </c>
       <c r="D9">
-        <v>187.8600006103516</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="E9">
-        <v>184.4199981689453</v>
+        <v>6.489999771118164</v>
       </c>
       <c r="F9">
-        <v>198.3399963378907</v>
+        <v>14.26000022888184</v>
       </c>
       <c r="G9">
-        <v>161.3800048828125</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="H9">
-        <v>10664912097</v>
+        <v>294517302</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>3737204429</v>
@@ -1247,22 +1220,22 @@
         <v>45838</v>
       </c>
       <c r="D10">
-        <v>105.0804770925983</v>
+        <v>7.710000038146973</v>
       </c>
       <c r="E10">
-        <v>103.1780242919922</v>
+        <v>9.180000305175779</v>
       </c>
       <c r="F10">
-        <v>109.3114367486601</v>
+        <v>11.5</v>
       </c>
       <c r="G10">
-        <v>101.4440230697358</v>
+        <v>7.510000228881836</v>
       </c>
       <c r="H10">
-        <v>199618386</v>
+        <v>294517302</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>2170167347</v>
